--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>671030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>西部利得事件驱动股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000496</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>001808</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>银华互联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>006251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>银华兴盛股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>37.83</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006251</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华兴盛股票</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000822</t>
+          <t>168301</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东海美丽中国灵活配置混合</t>
+          <t>东海祥龙灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001808</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华互联网主题灵活配置混合</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>000496</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>长安产业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002071</t>
+          <t>000822</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合C</t>
+          <t>东海美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002071</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>长安产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>671030</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得事件驱动股票</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>168301</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162202</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利周期混合</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>671030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>西部利得事件驱动股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>162202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>泰达宏利周期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000822</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东海美丽中国灵活配置混合</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>168301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>东海祥龙灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>671030</t>
+          <t>000822</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得事件驱动股票</t>
+          <t>东海美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168301</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1693,4 +1694,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2586,4 +2587,2906 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4601</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5489,4 +5490,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5498,7 +5499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5509,17 +5510,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5529,14 +5550,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.21</v>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5545,14 +5588,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.8</v>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5561,14 +5626,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5577,13 +5664,149 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5705,7 +5706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5716,17 +5717,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5736,14 +5757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5752,14 +5795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.21</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5768,14 +5833,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.8</v>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5784,14 +5871,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5800,13 +5909,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6180,7 +6181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6191,17 +6192,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6211,14 +6232,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6227,14 +6270,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -6243,14 +6308,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.21</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6259,14 +6346,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.8</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6275,14 +6384,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.04</v>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6291,13 +6422,2269 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>8.949999999999999</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>23.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>4.8</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -600,6 +617,2834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>58.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3443,7 +6288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3649,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6551,7 +9396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7443,7 +10288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7917,7 +10762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
+++ b/数据整理/stocks/A股/上证主板/603185-上机数控.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>28.66</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>8.949999999999999</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>23.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -616,7 +633,1637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3444,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5814,7 +7461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6288,7 +7935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6494,7 +8141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9396,7 +11043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10288,7 +11935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10760,780 +12407,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2658</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>671030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1489</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000828</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利转型机遇股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1363</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162202</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利周期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0893</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000534</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001808</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华互联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0674</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006251</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华兴盛股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000496</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长安产业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000822</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东海美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002071</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长安产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>